--- a/publipostage2/01jbb3w63/liste_essais_cliniques_identifies_01jbb3w63.xlsx
+++ b/publipostage2/01jbb3w63/liste_essais_cliniques_identifies_01jbb3w63.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/01jbb3w63/liste_essais_cliniques_identifies_01jbb3w63.xlsx
+++ b/publipostage2/01jbb3w63/liste_essais_cliniques_identifies_01jbb3w63.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,36 +513,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT02837835</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Comparison of Lung Concentrations of Ceftazidime Administered by Continuous Versus Intermittent Infusion in Patients With Ventilator-associated Pneumonia</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>CEFTALC</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
         <v>1</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -556,32 +566,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT00533104</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Critical Limb Ischemia Treatment by Local Intra-Muscular Injection of Autologous Mononuclear Cells</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
         <v>1</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -600,32 +615,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT01566071</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
         <is>
           <t>DRIVE COG</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -644,36 +664,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT00904501</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cell Therapy in Critical Limb Ischemia</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>BALI</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -692,28 +717,33 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT01565434</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -732,36 +762,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT03668925</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Association Between Hidradenitis Suppurativa and Spondyloarthritis</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>VESPA</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -780,36 +815,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT02833870</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Non-drug Taken Charge of Alzheimer's Disease: Profit Musical Activities</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>MusicAlzheimer</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -828,36 +868,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT02862639</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Efficacy of Viscosupplementation Associated With Intra-articular Corticosteroid Injection Versus Intra-articular Injection of Corticosteroids Alone in Osteoarthritis of Hip</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>VISCOSUPP-HIP</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -876,36 +921,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT02793453</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Antimicrobial Peptides in Periodontitis : a Pilot Study</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>PAROPAM</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -924,32 +974,37 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT02404142</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
         <is>
           <t>GICAC</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -968,36 +1023,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT02810496</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Prevalence of Mutations of Glucocorticoid Receptors in Bilateral Adrenal Hyperplasia</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>MUTA-GR</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>GENETIC</t>
         </is>
@@ -1016,36 +1076,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT02816151</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Children Toxine Botulinum Detrusor Injection in Neurogenic Vesical Hyperactivity Syndrom: Non Inferiority Multicenter Controlled Therapeutic Study Between Two Reported Weight's Doses</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>TBIDE</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1064,36 +1129,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT02784769</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Role of Molecular Aging of Matrix Proteins of the Vessel Wall in the Aneurysm Pathology</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>VIMANE</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1110,38 +1180,43 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2010-021265-80</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Injections intradétrusoriennes de toxine botulique A chez l'enfant présentant un syndrome d'hyperactivité vésicale neurogène : essai thérapeutique contrôlé multicentrique de non infériorité entre deux doses rapportées au poids.</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>TBIDE</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1156,32 +1231,37 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>NCT02833909</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>ex Vivo Study of the Inflammatory Response Associated With Hidradenitis Suppurativa</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1200,36 +1280,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>NCT02862652</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Role of the Microparticles and of Tissue Factor in the Pro-thrombotic Phenotype and the Thromboembolic Complications During the Acute Lymphoblastic Leukemia in Children</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>THROMBLEUKEMIA</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1248,36 +1333,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>NCT02818465</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Role of the Interaction Between AGEs and Their Receptor RAGE in the Development and the Progression of the Uremic Vasculopathy of Hemodialyzed Patients</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>RAGE-VASCU</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1296,36 +1386,41 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>NCT02868944</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Interest of the Injection of Morphine, in Addition to a Local Anesthetic When Performing a Combined Spinal-epidural for Labor Analgesia</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>MASEA</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1344,36 +1439,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>NCT02808663</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Assessment of the Predictive Value of Fecal Calprotectin for the Outcome of Severe Alcoholic Hepatitis</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>CALPRO-HAA</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1392,32 +1492,37 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>NCT02792283</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Evaluation of the Bleeding Risk in Patient Undergoing Hemodialysis by the Analysis of Platelet Function by PFA-100®</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="b">
         <v>0</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1436,36 +1541,41 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>NCT02857387</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Markers of Vascular Aging and Coronary Syndrome</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>MAVASCOR</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1484,32 +1594,37 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>NCT02814812</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Postoperative Comput Tomography as a Predictor of Postoperative Complications After Pancreatic Surgery</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="b">
         <v>0</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1528,36 +1643,41 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>NCT03371277</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Attributional Style Assessment in Patients With Parkinson's Disease Treated With Deep Brain Stimulation</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>ParkAIHQ</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
       <c r="J24" t="b">
         <v>0</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1576,36 +1696,41 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>NCT02794129</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Functional Magnetic Resonance Imaging of Formal Thought Disorders in Bipolar Disorder</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>i-TCP</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
       <c r="J25" t="b">
         <v>0</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1624,36 +1749,41 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>NCT03007108</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Determination of Normal Range Values of Thrombin Generation Parameters in Pediatrics Population Using a New Standardized Thrombin Generation Assay</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>TGT</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1672,36 +1802,41 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>NCT02837926</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Work Package 4: HPV Vaccination of Women in Screening Ages</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>CoheaHr-WP4</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1720,36 +1855,41 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>NCT02770482</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Utility of Amyloid Beta-peptide 1-40 Measurement in the Diagnosis of Alzheimer's Disease</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>ADAB40</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
       <c r="J28" t="b">
         <v>0</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1768,32 +1908,37 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>NCT02787980</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Dosage of Serum Tryptase Levels in a Population of Premature Newborns to Evaluate Mast Cell Activity</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="b">
         <v>0</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1812,36 +1957,41 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>NCT02794311</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>AlcoholPredict: Neuropsychology, Brain Imaging and Genetic Polymorphisms in Binge Drinking</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>AlcoolPredict</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
       <c r="J30" t="b">
         <v>0</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1860,36 +2010,41 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>NCT03344471</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Factors Associated With Post-Traumatic Stress Disorder in Patients With After Preterm Delivery</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>PTSD-preterm</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1908,36 +2063,41 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>NCT02816580</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>PTMDP (Post-translational Modification Derived Products) as Markers of Frailty in Elderly Subjects</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>MAFRA</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
       <c r="J32" t="b">
         <v>0</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1956,36 +2116,41 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>NCT02864121</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Association Between High-risk HPV Genome Integration Detected by Molecular Combing and Cervical Lesions Severity and/or Evolution</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>IDAHO</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2004,36 +2169,41 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>NCT02862678</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Predictive Value of Diffusion-weighted MRI Performed in Early Post-treatment in the Occurrence of Tumor Recurrence or Progression in Head and Neck Squamous Cell Carcinoma Treated With Chemoradiotherapy: a Pilot Study</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>ORODIFF</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2052,28 +2222,30 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>NCT02867579</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Pregnancy Denial and Attachment</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>Denial-attach</t>
         </is>
-      </c>
-      <c r="I35" t="b">
-        <v>1</v>
       </c>
       <c r="J35" t="b">
         <v>1</v>
@@ -2081,7 +2253,10 @@
       <c r="K35" t="b">
         <v>1</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="b">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -2100,36 +2275,41 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>NCT03664908</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Detection of Anti-glomerular Basement Membrane Antibodies (Anti-GBM): a Promising Biomarker for Lupus Nephritis (LN) Screening in Systemic Lupus Erythematosus (SLE) Patients?</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>GOODLUPUS</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2148,36 +2328,41 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>NCT02862743</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Molecular Characterization of Advanced Stage Melanoma by Blood Sampling</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>MELCIRC</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2196,36 +2381,41 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>NCT04301427</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Smallest Significant Value in Osteodensitomery in an Obese Population</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>PPVS-ob</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
       <c r="J38" t="b">
         <v>0</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2244,36 +2434,41 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>NCT02879422</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Study of the Association Between Genetic Markers (Endothelial Lipase and Aldose Reductase) and Proliferative Diabetic Retinopathy</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>REDIAGEN</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
       <c r="J39" t="b">
         <v>0</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>GENETIC</t>
         </is>
@@ -2292,36 +2487,41 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>NCT02866812</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Prevalence and Factors Associated With the Occurrence of Depression Six Months After an Endovascular Treatment of Intracranial Aneurysm</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>DEP-AIC</t>
         </is>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
       <c r="J40" t="b">
         <v>0</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2340,36 +2540,41 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>NCT03666260</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Comparison of the Clinical Effectiveness of the Quadratus Lumborum Block and Femoral Block in the Analgesia of Total Posterior Hip Arthroplasty</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>ATHAQLuB</t>
         </is>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
       <c r="J41" t="b">
         <v>0</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2388,32 +2593,37 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>NCT04875494</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Physical Exercise and Self-esteem: a Randomized Controlled Trial in Domestic Violence Victims</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="b">
         <v>0</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -2432,36 +2642,41 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>NCT03852888</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Kinetics of Elimination of Methotrexate and Its Major Metabolite 7-OH-methotrexate for Observant Patients</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>MetU</t>
         </is>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -2480,36 +2695,41 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>NCT04816084</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>SERUR : Etude sérologique COVID-19 (Anti-SARS CoV 2) du Personnel de l'Université de Reims Champagne-Ardenne</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>SERUR</t>
         </is>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
       <c r="J44" t="b">
         <v>0</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -2528,32 +2748,37 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>NCT03882463</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Interest of SmartGuard Technology (Predictive System for Stopping Insulin Before Hypoglycemia) in Children With Type 1 Diabetes Treated With Insulin Pump</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="b">
         <v>0</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2572,36 +2797,41 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>NCT03374618</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Neutrophil Extracellular Traps in Different Forms of Systemic Sclerosis</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>NET-SSC</t>
         </is>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2620,36 +2850,41 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>NCT02862756</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Analysis of Thrombo-embolic Complications After Endovascular Treatment of Unruptured Intracranial Aneurysms</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>ACET</t>
         </is>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
       <c r="J47" t="b">
         <v>0</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2668,36 +2903,41 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>NCT04255121</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Interest of the Alkalinization of the Adrenaline Lidocaine Solution for Conversion of Epidural Analgesia Into Epidural Anesthesia During an Emergency Caesarean</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>BiEpIC</t>
         </is>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
       <c r="J48" t="b">
         <v>0</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2716,36 +2956,41 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>NCT03008746</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Pulmonary Microbiota in COPD Patients Colonized With P. Aeruginosa OprD Mutant Resistant to Imipenem</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>MiPAD</t>
         </is>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
       <c r="J49" t="b">
         <v>0</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2764,32 +3009,37 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>NCT04376840</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Prevalence of Long-term Respiratory Complications of Severe SARS-CoV-2 Pneumonia</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="b">
         <v>1</v>
       </c>
       <c r="K50" t="b">
         <v>1</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="L50" t="b">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2808,32 +3058,37 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>NCT02826928</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Diagnostic Performances of Urine and Plasma 5-hydroxyindolacetic Acid (5HIAA) Values in Patients With Small-intestine Neuroendocrine Tumors</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="b">
         <v>1</v>
       </c>
       <c r="K51" t="b">
         <v>1</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="L51" t="b">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -2852,36 +3107,41 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>NCT05384418</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Cardiac AMyloidosis Prevalence and Outcome in Aortic Stenosis Patients Undergoing Transcatheter Aortic Valve Implantation (CAMPOS-TAVI)</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>CAMPOS-TAVI</t>
         </is>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
       <c r="J52" t="b">
         <v>0</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -2900,36 +3160,41 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>NCT04999254</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Osteopathic Consultation in the Emergency Department for Fresh Lateral Ligament Sprain : a Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>OASED</t>
         </is>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2948,36 +3213,41 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>NCT05391451</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Clinical Efficacy of the Quadratus Lumborum Block for Analgesia in Kidney Transplant Surgery</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>CARRENAL</t>
         </is>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
       <c r="J54" t="b">
         <v>0</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2996,36 +3266,41 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>NCT04117932</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Efficacy and Safety of Ustekinumab in Bullous Pemphigoid</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>PB-USTE</t>
         </is>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
       <c r="J55" t="b">
         <v>0</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3044,36 +3319,41 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>NCT04576494</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Study of the Functional Effects of Nusinersen in 5q-spinal Muscular Amyotrophy Adults (SMA Type 2 or 3 Forms): a Multicenter Single-case Experimental Design in Multiple Baselines Across Subjects, Randomized, Single-blinded Evaluation</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>NUSI-AD-5qSM</t>
         </is>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
       <c r="J56" t="b">
         <v>0</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3092,36 +3372,41 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>NCT04429490</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Organochlorine Concentration in Adipose Tissue and Pancreatic Adenocarcinoma : a Case Control Study.</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>PESTIPAC</t>
         </is>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
       <c r="J57" t="b">
         <v>0</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3140,36 +3425,41 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>NCT05392062</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Pathophysiology of Gas Exchange and Time Course Changes in Spontaneously Breathing Patients With Acute Respiratory Failure Due to COVID-19. A Multicenter Prospective Study.</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>COVAQ</t>
         </is>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
       <c r="J58" t="b">
         <v>0</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3188,28 +3478,30 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>NCT03007095</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Preterm Birth and Social Cognition: of the Executive Functions and Parental Anxiety's Stakes</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>TERM-COG</t>
         </is>
-      </c>
-      <c r="I59" t="b">
-        <v>1</v>
       </c>
       <c r="J59" t="b">
         <v>1</v>
@@ -3217,7 +3509,10 @@
       <c r="K59" t="b">
         <v>1</v>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="L59" t="b">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -3236,36 +3531,41 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>NCT05505968</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Evaluation of the Interest of a Virtual Reality Headset on Pain and Anxiety During Epidural Injection Through the Sacrococcygeal Hiatus in Patients With Lumbar Radicular Pain.</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>Epi-RéV</t>
         </is>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
       <c r="J60" t="b">
         <v>0</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3284,36 +3584,41 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>NCT05105256</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Platelet-rich Plasma Infiltration Versus Corticosteroid Infiltration (Prednisolone) in Treatment of Lumbar Facet Joint Syndrome</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>IAPRP</t>
         </is>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
       <c r="J61" t="b">
         <v>0</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3332,36 +3637,41 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>NCT04237077</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Impact of a Telephone Coaching Program on Evolution of Autonomy in Subjects Aged 75 Years or More Living at Home</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>Frailcoach</t>
         </is>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
       <c r="J62" t="b">
         <v>0</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3380,36 +3690,41 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>NCT04933097</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Evaluation of a New Screening Method for Sarcopenia in Rheumatoid Arthritis</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>SARCO-RA</t>
         </is>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
       <c r="J63" t="b">
         <v>0</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3428,36 +3743,41 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>NCT04326569</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Interest of the Copeptine Dosage in Diagnosis of Post-operative Insipidus Diabetes After Transsphenoidal Pituitary Surgery</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>Copeptin-surg</t>
         </is>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
       <c r="J64" t="b">
         <v>0</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3476,28 +3796,33 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>NCT02807194</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr">
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
         <is>
           <t>Epidural Anesthesia Versus General Anesthesia for Elective Lumbar Disk Surgery in a Outpatient Basis</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="b">
         <v>0</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>

--- a/publipostage2/01jbb3w63/liste_essais_cliniques_identifies_01jbb3w63.xlsx
+++ b/publipostage2/01jbb3w63/liste_essais_cliniques_identifies_01jbb3w63.xlsx
@@ -55,22 +55,22 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>🟩</t>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>📗</t>
   </si>
   <si>
     <t>rouge</t>
   </si>
   <si>
-    <t>noir</t>
+    <t>bleu</t>
   </si>
   <si>
     <t>orange</t>

--- a/publipostage2/01jbb3w63/liste_essais_cliniques_identifies_01jbb3w63.xlsx
+++ b/publipostage2/01jbb3w63/liste_essais_cliniques_identifies_01jbb3w63.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📙</t>
-  </si>
-  <si>
-    <t>📗</t>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>✅</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/01jbb3w63/liste_essais_cliniques_identifies_01jbb3w63.xlsx
+++ b/publipostage2/01jbb3w63/liste_essais_cliniques_identifies_01jbb3w63.xlsx
@@ -70,7 +70,7 @@
     <t>rouge</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>orange</t>
@@ -79,16 +79,16 @@
     <t>vert</t>
   </si>
   <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT02837835</t>

--- a/publipostage2/01jbb3w63/liste_essais_cliniques_identifies_01jbb3w63.xlsx
+++ b/publipostage2/01jbb3w63/liste_essais_cliniques_identifies_01jbb3w63.xlsx
@@ -73,9 +73,15 @@
     <t>NCT00533104</t>
   </si>
   <si>
+    <t>NCT02833870</t>
+  </si>
+  <si>
     <t>NCT01566071</t>
   </si>
   <si>
+    <t>NCT02862639</t>
+  </si>
+  <si>
     <t>NCT00904501</t>
   </si>
   <si>
@@ -85,30 +91,30 @@
     <t>NCT03668925</t>
   </si>
   <si>
-    <t>NCT02833870</t>
-  </si>
-  <si>
-    <t>NCT02862639</t>
+    <t>NCT02784769</t>
+  </si>
+  <si>
+    <t>NCT02810496</t>
+  </si>
+  <si>
+    <t>NCT02404142</t>
   </si>
   <si>
     <t>NCT02793453</t>
   </si>
   <si>
-    <t>NCT02404142</t>
-  </si>
-  <si>
-    <t>NCT02810496</t>
-  </si>
-  <si>
     <t>NCT02816151</t>
   </si>
   <si>
-    <t>NCT02784769</t>
-  </si>
-  <si>
     <t>NCT02833909</t>
   </si>
   <si>
+    <t>NCT02792283</t>
+  </si>
+  <si>
+    <t>NCT02808663</t>
+  </si>
+  <si>
     <t>NCT02862652</t>
   </si>
   <si>
@@ -118,141 +124,135 @@
     <t>NCT02868944</t>
   </si>
   <si>
-    <t>NCT02808663</t>
-  </si>
-  <si>
-    <t>NCT02792283</t>
+    <t>NCT02814812</t>
+  </si>
+  <si>
+    <t>NCT02770482</t>
+  </si>
+  <si>
+    <t>NCT02837926</t>
+  </si>
+  <si>
+    <t>NCT02794129</t>
   </si>
   <si>
     <t>NCT02857387</t>
   </si>
   <si>
-    <t>NCT02814812</t>
-  </si>
-  <si>
     <t>NCT03371277</t>
   </si>
   <si>
-    <t>NCT02794129</t>
-  </si>
-  <si>
     <t>NCT03007108</t>
   </si>
   <si>
-    <t>NCT02837926</t>
-  </si>
-  <si>
-    <t>NCT02770482</t>
+    <t>NCT03664908</t>
+  </si>
+  <si>
+    <t>NCT02867579</t>
+  </si>
+  <si>
+    <t>NCT02864121</t>
+  </si>
+  <si>
+    <t>NCT02862678</t>
+  </si>
+  <si>
+    <t>NCT03344471</t>
+  </si>
+  <si>
+    <t>NCT02816580</t>
+  </si>
+  <si>
+    <t>NCT02862743</t>
+  </si>
+  <si>
+    <t>NCT02794311</t>
   </si>
   <si>
     <t>NCT02787980</t>
   </si>
   <si>
-    <t>NCT02794311</t>
-  </si>
-  <si>
-    <t>NCT03344471</t>
-  </si>
-  <si>
-    <t>NCT02816580</t>
-  </si>
-  <si>
-    <t>NCT02864121</t>
-  </si>
-  <si>
-    <t>NCT02862678</t>
-  </si>
-  <si>
-    <t>NCT02867579</t>
-  </si>
-  <si>
-    <t>NCT03664908</t>
-  </si>
-  <si>
-    <t>NCT02862743</t>
-  </si>
-  <si>
     <t>NCT04301427</t>
   </si>
   <si>
+    <t>NCT04875494</t>
+  </si>
+  <si>
+    <t>NCT03666260</t>
+  </si>
+  <si>
     <t>NCT02879422</t>
   </si>
   <si>
+    <t>NCT03374618</t>
+  </si>
+  <si>
+    <t>NCT04255121</t>
+  </si>
+  <si>
+    <t>NCT03852888</t>
+  </si>
+  <si>
+    <t>NCT04816084</t>
+  </si>
+  <si>
+    <t>NCT03882463</t>
+  </si>
+  <si>
     <t>NCT02866812</t>
   </si>
   <si>
-    <t>NCT03666260</t>
-  </si>
-  <si>
-    <t>NCT04875494</t>
-  </si>
-  <si>
-    <t>NCT03852888</t>
-  </si>
-  <si>
-    <t>NCT04816084</t>
-  </si>
-  <si>
-    <t>NCT03882463</t>
-  </si>
-  <si>
-    <t>NCT03374618</t>
-  </si>
-  <si>
     <t>NCT02862756</t>
   </si>
   <si>
-    <t>NCT04255121</t>
+    <t>NCT05384418</t>
+  </si>
+  <si>
+    <t>NCT04376840</t>
+  </si>
+  <si>
+    <t>NCT05391451</t>
+  </si>
+  <si>
+    <t>NCT04999254</t>
   </si>
   <si>
     <t>NCT03008746</t>
   </si>
   <si>
-    <t>NCT04376840</t>
-  </si>
-  <si>
     <t>NCT02826928</t>
   </si>
   <si>
-    <t>NCT05384418</t>
-  </si>
-  <si>
-    <t>NCT04999254</t>
-  </si>
-  <si>
-    <t>NCT05391451</t>
+    <t>NCT05392062</t>
+  </si>
+  <si>
+    <t>NCT03007095</t>
+  </si>
+  <si>
+    <t>NCT04429490</t>
+  </si>
+  <si>
+    <t>NCT04576494</t>
   </si>
   <si>
     <t>NCT04117932</t>
   </si>
   <si>
-    <t>NCT04576494</t>
-  </si>
-  <si>
-    <t>NCT04429490</t>
-  </si>
-  <si>
-    <t>NCT05392062</t>
-  </si>
-  <si>
-    <t>NCT03007095</t>
+    <t>NCT04933097</t>
+  </si>
+  <si>
+    <t>NCT04237077</t>
+  </si>
+  <si>
+    <t>NCT05105256</t>
+  </si>
+  <si>
+    <t>NCT04326569</t>
   </si>
   <si>
     <t>NCT05505968</t>
   </si>
   <si>
-    <t>NCT05105256</t>
-  </si>
-  <si>
-    <t>NCT04237077</t>
-  </si>
-  <si>
-    <t>NCT04933097</t>
-  </si>
-  <si>
-    <t>NCT04326569</t>
-  </si>
-  <si>
     <t>NCT02807194</t>
   </si>
   <si>
@@ -301,36 +301,42 @@
     <t>Critical Limb Ischemia Treatment by Local Intra-Muscular Injection of Autologous Mononuclear Cells</t>
   </si>
   <si>
+    <t>Non-drug Taken Charge of Alzheimer's Disease: Profit Musical Activities</t>
+  </si>
+  <si>
+    <t>Efficacy of Viscosupplementation Associated With Intra-articular Corticosteroid Injection Versus Intra-articular Injection of Corticosteroids Alone in Osteoarthritis of Hip</t>
+  </si>
+  <si>
     <t>Cell Therapy in Critical Limb Ischemia</t>
   </si>
   <si>
     <t>Association Between Hidradenitis Suppurativa and Spondyloarthritis</t>
   </si>
   <si>
-    <t>Non-drug Taken Charge of Alzheimer's Disease: Profit Musical Activities</t>
-  </si>
-  <si>
-    <t>Efficacy of Viscosupplementation Associated With Intra-articular Corticosteroid Injection Versus Intra-articular Injection of Corticosteroids Alone in Osteoarthritis of Hip</t>
+    <t>Role of Molecular Aging of Matrix Proteins of the Vessel Wall in the Aneurysm Pathology</t>
+  </si>
+  <si>
+    <t>Prevalence of Mutations of Glucocorticoid Receptors in Bilateral Adrenal Hyperplasia</t>
+  </si>
+  <si>
+    <t>Injections intradétrusoriennes de toxine botulique A chez l'enfant présentant un syndrome d'hyperactivité vésicale neurogène : essai thérapeutique contrôlé multicentrique de non infériorité entre deux doses rapportées au poids.</t>
   </si>
   <si>
     <t>Antimicrobial Peptides in Periodontitis : a Pilot Study</t>
   </si>
   <si>
-    <t>Prevalence of Mutations of Glucocorticoid Receptors in Bilateral Adrenal Hyperplasia</t>
-  </si>
-  <si>
     <t>Children Toxine Botulinum Detrusor Injection in Neurogenic Vesical Hyperactivity Syndrom: Non Inferiority Multicenter Controlled Therapeutic Study Between Two Reported Weight's Doses</t>
   </si>
   <si>
-    <t>Role of Molecular Aging of Matrix Proteins of the Vessel Wall in the Aneurysm Pathology</t>
-  </si>
-  <si>
-    <t>Injections intradétrusoriennes de toxine botulique A chez l'enfant présentant un syndrome d'hyperactivité vésicale neurogène : essai thérapeutique contrôlé multicentrique de non infériorité entre deux doses rapportées au poids.</t>
-  </si>
-  <si>
     <t>ex Vivo Study of the Inflammatory Response Associated With Hidradenitis Suppurativa</t>
   </si>
   <si>
+    <t>Evaluation of the Bleeding Risk in Patient Undergoing Hemodialysis by the Analysis of Platelet Function by PFA-100®</t>
+  </si>
+  <si>
+    <t>Assessment of the Predictive Value of Fecal Calprotectin for the Outcome of Severe Alcoholic Hepatitis</t>
+  </si>
+  <si>
     <t>Role of the Microparticles and of Tissue Factor in the Pro-thrombotic Phenotype and the Thromboembolic Complications During the Acute Lymphoblastic Leukemia in Children</t>
   </si>
   <si>
@@ -340,175 +346,172 @@
     <t>Interest of the Injection of Morphine, in Addition to a Local Anesthetic When Performing a Combined Spinal-epidural for Labor Analgesia</t>
   </si>
   <si>
-    <t>Assessment of the Predictive Value of Fecal Calprotectin for the Outcome of Severe Alcoholic Hepatitis</t>
-  </si>
-  <si>
-    <t>Evaluation of the Bleeding Risk in Patient Undergoing Hemodialysis by the Analysis of Platelet Function by PFA-100®</t>
+    <t>Postoperative Comput Tomography as a Predictor of Postoperative Complications After Pancreatic Surgery</t>
+  </si>
+  <si>
+    <t>Utility of Amyloid Beta-peptide 1-40 Measurement in the Diagnosis of Alzheimer's Disease</t>
+  </si>
+  <si>
+    <t>Work Package 4: HPV Vaccination of Women in Screening Ages</t>
+  </si>
+  <si>
+    <t>Functional Magnetic Resonance Imaging of Formal Thought Disorders in Bipolar Disorder</t>
   </si>
   <si>
     <t>Markers of Vascular Aging and Coronary Syndrome</t>
   </si>
   <si>
-    <t>Postoperative Comput Tomography as a Predictor of Postoperative Complications After Pancreatic Surgery</t>
-  </si>
-  <si>
     <t>Attributional Style Assessment in Patients With Parkinson's Disease Treated With Deep Brain Stimulation</t>
   </si>
   <si>
-    <t>Functional Magnetic Resonance Imaging of Formal Thought Disorders in Bipolar Disorder</t>
-  </si>
-  <si>
     <t>Determination of Normal Range Values of Thrombin Generation Parameters in Pediatrics Population Using a New Standardized Thrombin Generation Assay</t>
   </si>
   <si>
-    <t>Work Package 4: HPV Vaccination of Women in Screening Ages</t>
-  </si>
-  <si>
-    <t>Utility of Amyloid Beta-peptide 1-40 Measurement in the Diagnosis of Alzheimer's Disease</t>
+    <t>Detection of Anti-glomerular Basement Membrane Antibodies (Anti-GBM): a Promising Biomarker for Lupus Nephritis (LN) Screening in Systemic Lupus Erythematosus (SLE) Patients?</t>
+  </si>
+  <si>
+    <t>Pregnancy Denial and Attachment</t>
+  </si>
+  <si>
+    <t>Association Between High-risk HPV Genome Integration Detected by Molecular Combing and Cervical Lesions Severity and/or Evolution</t>
+  </si>
+  <si>
+    <t>Predictive Value of Diffusion-weighted MRI Performed in Early Post-treatment in the Occurrence of Tumor Recurrence or Progression in Head and Neck Squamous Cell Carcinoma Treated With Chemoradiotherapy: a Pilot Study</t>
+  </si>
+  <si>
+    <t>Factors Associated With Post-Traumatic Stress Disorder in Patients With After Preterm Delivery</t>
+  </si>
+  <si>
+    <t>PTMDP (Post-translational Modification Derived Products) as Markers of Frailty in Elderly Subjects</t>
+  </si>
+  <si>
+    <t>Molecular Characterization of Advanced Stage Melanoma by Blood Sampling</t>
+  </si>
+  <si>
+    <t>AlcoholPredict: Neuropsychology, Brain Imaging and Genetic Polymorphisms in Binge Drinking</t>
   </si>
   <si>
     <t>Dosage of Serum Tryptase Levels in a Population of Premature Newborns to Evaluate Mast Cell Activity</t>
   </si>
   <si>
-    <t>AlcoholPredict: Neuropsychology, Brain Imaging and Genetic Polymorphisms in Binge Drinking</t>
-  </si>
-  <si>
-    <t>Factors Associated With Post-Traumatic Stress Disorder in Patients With After Preterm Delivery</t>
-  </si>
-  <si>
-    <t>PTMDP (Post-translational Modification Derived Products) as Markers of Frailty in Elderly Subjects</t>
-  </si>
-  <si>
-    <t>Association Between High-risk HPV Genome Integration Detected by Molecular Combing and Cervical Lesions Severity and/or Evolution</t>
-  </si>
-  <si>
-    <t>Predictive Value of Diffusion-weighted MRI Performed in Early Post-treatment in the Occurrence of Tumor Recurrence or Progression in Head and Neck Squamous Cell Carcinoma Treated With Chemoradiotherapy: a Pilot Study</t>
-  </si>
-  <si>
-    <t>Pregnancy Denial and Attachment</t>
-  </si>
-  <si>
-    <t>Detection of Anti-glomerular Basement Membrane Antibodies (Anti-GBM): a Promising Biomarker for Lupus Nephritis (LN) Screening in Systemic Lupus Erythematosus (SLE) Patients?</t>
-  </si>
-  <si>
-    <t>Molecular Characterization of Advanced Stage Melanoma by Blood Sampling</t>
-  </si>
-  <si>
     <t>Smallest Significant Value in Osteodensitomery in an Obese Population</t>
   </si>
   <si>
+    <t>Physical Exercise and Self-esteem: a Randomized Controlled Trial in Domestic Violence Victims</t>
+  </si>
+  <si>
+    <t>Comparison of the Clinical Effectiveness of the Quadratus Lumborum Block and Femoral Block in the Analgesia of Total Posterior Hip Arthroplasty</t>
+  </si>
+  <si>
     <t>Study of the Association Between Genetic Markers (Endothelial Lipase and Aldose Reductase) and Proliferative Diabetic Retinopathy</t>
   </si>
   <si>
+    <t>Neutrophil Extracellular Traps in Different Forms of Systemic Sclerosis</t>
+  </si>
+  <si>
+    <t>Interest of the Alkalinization of the Adrenaline Lidocaine Solution for Conversion of Epidural Analgesia Into Epidural Anesthesia During an Emergency Caesarean</t>
+  </si>
+  <si>
+    <t>Kinetics of Elimination of Methotrexate and Its Major Metabolite 7-OH-methotrexate for Observant Patients</t>
+  </si>
+  <si>
+    <t>SERUR : Etude sérologique COVID-19 (Anti-SARS CoV 2) du Personnel de l'Université de Reims Champagne-Ardenne</t>
+  </si>
+  <si>
+    <t>Interest of SmartGuard Technology (Predictive System for Stopping Insulin Before Hypoglycemia) in Children With Type 1 Diabetes Treated With Insulin Pump</t>
+  </si>
+  <si>
     <t>Prevalence and Factors Associated With the Occurrence of Depression Six Months After an Endovascular Treatment of Intracranial Aneurysm</t>
   </si>
   <si>
-    <t>Comparison of the Clinical Effectiveness of the Quadratus Lumborum Block and Femoral Block in the Analgesia of Total Posterior Hip Arthroplasty</t>
-  </si>
-  <si>
-    <t>Physical Exercise and Self-esteem: a Randomized Controlled Trial in Domestic Violence Victims</t>
-  </si>
-  <si>
-    <t>Kinetics of Elimination of Methotrexate and Its Major Metabolite 7-OH-methotrexate for Observant Patients</t>
-  </si>
-  <si>
-    <t>SERUR : Etude sérologique COVID-19 (Anti-SARS CoV 2) du Personnel de l'Université de Reims Champagne-Ardenne</t>
-  </si>
-  <si>
-    <t>Interest of SmartGuard Technology (Predictive System for Stopping Insulin Before Hypoglycemia) in Children With Type 1 Diabetes Treated With Insulin Pump</t>
-  </si>
-  <si>
-    <t>Neutrophil Extracellular Traps in Different Forms of Systemic Sclerosis</t>
-  </si>
-  <si>
     <t>Analysis of Thrombo-embolic Complications After Endovascular Treatment of Unruptured Intracranial Aneurysms</t>
   </si>
   <si>
-    <t>Interest of the Alkalinization of the Adrenaline Lidocaine Solution for Conversion of Epidural Analgesia Into Epidural Anesthesia During an Emergency Caesarean</t>
+    <t>Cardiac AMyloidosis Prevalence and Outcome in Aortic Stenosis Patients Undergoing Transcatheter Aortic Valve Implantation (CAMPOS-TAVI)</t>
+  </si>
+  <si>
+    <t>Prevalence of Long-term Respiratory Complications of Severe SARS-CoV-2 Pneumonia</t>
+  </si>
+  <si>
+    <t>Clinical Efficacy of the Quadratus Lumborum Block for Analgesia in Kidney Transplant Surgery</t>
+  </si>
+  <si>
+    <t>Osteopathic Consultation in the Emergency Department for Fresh Lateral Ligament Sprain : a Randomized Controlled Trial</t>
   </si>
   <si>
     <t>Pulmonary Microbiota in COPD Patients Colonized With P. Aeruginosa OprD Mutant Resistant to Imipenem</t>
   </si>
   <si>
-    <t>Prevalence of Long-term Respiratory Complications of Severe SARS-CoV-2 Pneumonia</t>
-  </si>
-  <si>
     <t>Diagnostic Performances of Urine and Plasma 5-hydroxyindolacetic Acid (5HIAA) Values in Patients With Small-intestine Neuroendocrine Tumors</t>
   </si>
   <si>
-    <t>Cardiac AMyloidosis Prevalence and Outcome in Aortic Stenosis Patients Undergoing Transcatheter Aortic Valve Implantation (CAMPOS-TAVI)</t>
-  </si>
-  <si>
-    <t>Osteopathic Consultation in the Emergency Department for Fresh Lateral Ligament Sprain : a Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Clinical Efficacy of the Quadratus Lumborum Block for Analgesia in Kidney Transplant Surgery</t>
+    <t>Pathophysiology of Gas Exchange and Time Course Changes in Spontaneously Breathing Patients With Acute Respiratory Failure Due to COVID-19. A Multicenter Prospective Study.</t>
+  </si>
+  <si>
+    <t>Preterm Birth and Social Cognition: of the Executive Functions and Parental Anxiety's Stakes</t>
+  </si>
+  <si>
+    <t>Organochlorine Concentration in Adipose Tissue and Pancreatic Adenocarcinoma : a Case Control Study.</t>
+  </si>
+  <si>
+    <t>Study of the Functional Effects of Nusinersen in 5q-spinal Muscular Amyotrophy Adults (SMA Type 2 or 3 Forms): a Multicenter Single-case Experimental Design in Multiple Baselines Across Subjects, Randomized, Single-blinded Evaluation</t>
   </si>
   <si>
     <t>Efficacy and Safety of Ustekinumab in Bullous Pemphigoid</t>
   </si>
   <si>
-    <t>Study of the Functional Effects of Nusinersen in 5q-spinal Muscular Amyotrophy Adults (SMA Type 2 or 3 Forms): a Multicenter Single-case Experimental Design in Multiple Baselines Across Subjects, Randomized, Single-blinded Evaluation</t>
-  </si>
-  <si>
-    <t>Organochlorine Concentration in Adipose Tissue and Pancreatic Adenocarcinoma : a Case Control Study.</t>
-  </si>
-  <si>
-    <t>Pathophysiology of Gas Exchange and Time Course Changes in Spontaneously Breathing Patients With Acute Respiratory Failure Due to COVID-19. A Multicenter Prospective Study.</t>
-  </si>
-  <si>
-    <t>Preterm Birth and Social Cognition: of the Executive Functions and Parental Anxiety's Stakes</t>
+    <t>Evaluation of a New Screening Method for Sarcopenia in Rheumatoid Arthritis</t>
+  </si>
+  <si>
+    <t>Impact of a Telephone Coaching Program on Evolution of Autonomy in Subjects Aged 75 Years or More Living at Home</t>
+  </si>
+  <si>
+    <t>Platelet-rich Plasma Infiltration Versus Corticosteroid Infiltration (Prednisolone) in Treatment of Lumbar Facet Joint Syndrome</t>
+  </si>
+  <si>
+    <t>Interest of the Copeptine Dosage in Diagnosis of Post-operative Insipidus Diabetes After Transsphenoidal Pituitary Surgery</t>
   </si>
   <si>
     <t>Evaluation of the Interest of a Virtual Reality Headset on Pain and Anxiety During Epidural Injection Through the Sacrococcygeal Hiatus in Patients With Lumbar Radicular Pain.</t>
   </si>
   <si>
-    <t>Platelet-rich Plasma Infiltration Versus Corticosteroid Infiltration (Prednisolone) in Treatment of Lumbar Facet Joint Syndrome</t>
-  </si>
-  <si>
-    <t>Impact of a Telephone Coaching Program on Evolution of Autonomy in Subjects Aged 75 Years or More Living at Home</t>
-  </si>
-  <si>
-    <t>Evaluation of a New Screening Method for Sarcopenia in Rheumatoid Arthritis</t>
-  </si>
-  <si>
-    <t>Interest of the Copeptine Dosage in Diagnosis of Post-operative Insipidus Diabetes After Transsphenoidal Pituitary Surgery</t>
-  </si>
-  <si>
     <t>Epidural Anesthesia Versus General Anesthesia for Elective Lumbar Disk Surgery in a Outpatient Basis</t>
   </si>
   <si>
     <t>CEFTALC</t>
   </si>
   <si>
+    <t>MusicAlzheimer</t>
+  </si>
+  <si>
     <t>DRIVE COG</t>
   </si>
   <si>
+    <t>VISCOSUPP-HIP</t>
+  </si>
+  <si>
     <t>BALI</t>
   </si>
   <si>
     <t>VESPA</t>
   </si>
   <si>
-    <t>MusicAlzheimer</t>
-  </si>
-  <si>
-    <t>VISCOSUPP-HIP</t>
+    <t>VIMANE</t>
+  </si>
+  <si>
+    <t>MUTA-GR</t>
+  </si>
+  <si>
+    <t>GICAC</t>
+  </si>
+  <si>
+    <t>TBIDE</t>
   </si>
   <si>
     <t>PAROPAM</t>
   </si>
   <si>
-    <t>GICAC</t>
-  </si>
-  <si>
-    <t>MUTA-GR</t>
-  </si>
-  <si>
-    <t>TBIDE</t>
-  </si>
-  <si>
-    <t>VIMANE</t>
+    <t>CALPRO-HAA</t>
   </si>
   <si>
     <t>THROMBLEUKEMIA</t>
@@ -520,7 +523,13 @@
     <t>MASEA</t>
   </si>
   <si>
-    <t>CALPRO-HAA</t>
+    <t>ADAB40</t>
+  </si>
+  <si>
+    <t>CoheaHr-WP4</t>
+  </si>
+  <si>
+    <t>i-TCP</t>
   </si>
   <si>
     <t>MAVASCOR</t>
@@ -529,127 +538,118 @@
     <t>ParkAIHQ</t>
   </si>
   <si>
-    <t>i-TCP</t>
-  </si>
-  <si>
     <t>TGT</t>
   </si>
   <si>
-    <t>CoheaHr-WP4</t>
-  </si>
-  <si>
-    <t>ADAB40</t>
+    <t>GOODLUPUS</t>
+  </si>
+  <si>
+    <t>Denial-attach</t>
+  </si>
+  <si>
+    <t>IDAHO</t>
+  </si>
+  <si>
+    <t>ORODIFF</t>
+  </si>
+  <si>
+    <t>PTSD-preterm</t>
+  </si>
+  <si>
+    <t>MAFRA</t>
+  </si>
+  <si>
+    <t>MELCIRC</t>
   </si>
   <si>
     <t>AlcoolPredict</t>
   </si>
   <si>
-    <t>PTSD-preterm</t>
-  </si>
-  <si>
-    <t>MAFRA</t>
-  </si>
-  <si>
-    <t>IDAHO</t>
-  </si>
-  <si>
-    <t>ORODIFF</t>
-  </si>
-  <si>
-    <t>Denial-attach</t>
-  </si>
-  <si>
-    <t>GOODLUPUS</t>
-  </si>
-  <si>
-    <t>MELCIRC</t>
-  </si>
-  <si>
     <t>PPVS-ob</t>
   </si>
   <si>
+    <t>ATHAQLuB</t>
+  </si>
+  <si>
     <t>REDIAGEN</t>
   </si>
   <si>
+    <t>NET-SSC</t>
+  </si>
+  <si>
+    <t>BiEpIC</t>
+  </si>
+  <si>
+    <t>MetU</t>
+  </si>
+  <si>
+    <t>SERUR</t>
+  </si>
+  <si>
     <t>DEP-AIC</t>
   </si>
   <si>
-    <t>ATHAQLuB</t>
-  </si>
-  <si>
-    <t>MetU</t>
-  </si>
-  <si>
-    <t>SERUR</t>
-  </si>
-  <si>
-    <t>NET-SSC</t>
-  </si>
-  <si>
     <t>ACET</t>
   </si>
   <si>
-    <t>BiEpIC</t>
+    <t>CAMPOS-TAVI</t>
+  </si>
+  <si>
+    <t>CARRENAL</t>
+  </si>
+  <si>
+    <t>OASED</t>
   </si>
   <si>
     <t>MiPAD</t>
   </si>
   <si>
-    <t>CAMPOS-TAVI</t>
-  </si>
-  <si>
-    <t>OASED</t>
-  </si>
-  <si>
-    <t>CARRENAL</t>
+    <t>COVAQ</t>
+  </si>
+  <si>
+    <t>TERM-COG</t>
+  </si>
+  <si>
+    <t>PESTIPAC</t>
+  </si>
+  <si>
+    <t>NUSI-AD-5qSM</t>
   </si>
   <si>
     <t>PB-USTE</t>
   </si>
   <si>
-    <t>NUSI-AD-5qSM</t>
-  </si>
-  <si>
-    <t>PESTIPAC</t>
-  </si>
-  <si>
-    <t>COVAQ</t>
-  </si>
-  <si>
-    <t>TERM-COG</t>
+    <t>SARCO-RA</t>
+  </si>
+  <si>
+    <t>Frailcoach</t>
+  </si>
+  <si>
+    <t>IAPRP</t>
+  </si>
+  <si>
+    <t>Copeptin-surg</t>
   </si>
   <si>
     <t>Epi-RéV</t>
   </si>
   <si>
-    <t>IAPRP</t>
-  </si>
-  <si>
-    <t>Frailcoach</t>
-  </si>
-  <si>
-    <t>SARCO-RA</t>
-  </si>
-  <si>
-    <t>Copeptin-surg</t>
-  </si>
-  <si>
     <t>DRUG</t>
   </si>
   <si>
     <t>PROCEDURE</t>
   </si>
   <si>
+    <t>BEHAVIORAL</t>
+  </si>
+  <si>
     <t>OTHER</t>
   </si>
   <si>
+    <t>DEVICE</t>
+  </si>
+  <si>
     <t>RADIATION</t>
-  </si>
-  <si>
-    <t>BEHAVIORAL</t>
-  </si>
-  <si>
-    <t>DEVICE</t>
   </si>
   <si>
     <t>GENETIC</t>
@@ -1107,6 +1107,9 @@
       <c r="F4" t="s">
         <v>83</v>
       </c>
+      <c r="G4" t="s">
+        <v>95</v>
+      </c>
       <c r="H4" t="s">
         <v>155</v>
       </c>
@@ -1127,14 +1130,11 @@
       <c r="F5" t="s">
         <v>83</v>
       </c>
-      <c r="G5" t="s">
-        <v>95</v>
-      </c>
       <c r="H5" t="s">
         <v>156</v>
       </c>
       <c r="I5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1150,8 +1150,14 @@
       <c r="F6" t="s">
         <v>83</v>
       </c>
+      <c r="G6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" t="s">
+        <v>157</v>
+      </c>
       <c r="I6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1168,13 +1174,13 @@
         <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1190,14 +1196,8 @@
       <c r="F8" t="s">
         <v>83</v>
       </c>
-      <c r="G8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H8" t="s">
-        <v>158</v>
-      </c>
       <c r="I8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1243,15 +1243,15 @@
         <v>160</v>
       </c>
       <c r="I10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -1259,19 +1259,22 @@
       <c r="F11" t="s">
         <v>84</v>
       </c>
+      <c r="G11" t="s">
+        <v>100</v>
+      </c>
       <c r="H11" t="s">
         <v>161</v>
       </c>
       <c r="I11" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1279,14 +1282,11 @@
       <c r="F12" t="s">
         <v>84</v>
       </c>
-      <c r="G12" t="s">
-        <v>100</v>
-      </c>
       <c r="H12" t="s">
         <v>162</v>
       </c>
       <c r="I12" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1296,8 +1296,8 @@
       <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
-        <v>28</v>
+      <c r="D13" t="s">
+        <v>80</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -1308,9 +1308,6 @@
       <c r="H13" t="s">
         <v>163</v>
       </c>
-      <c r="I13" t="s">
-        <v>206</v>
-      </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
@@ -1320,7 +1317,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
         <v>84</v>
@@ -1332,7 +1329,7 @@
         <v>164</v>
       </c>
       <c r="I14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1342,8 +1339,8 @@
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
-        <v>80</v>
+      <c r="C15" t="s">
+        <v>29</v>
       </c>
       <c r="F15" t="s">
         <v>84</v>
@@ -1354,6 +1351,9 @@
       <c r="H15" t="s">
         <v>163</v>
       </c>
+      <c r="I15" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
@@ -1372,7 +1372,7 @@
         <v>104</v>
       </c>
       <c r="I16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1391,11 +1391,8 @@
       <c r="G17" t="s">
         <v>105</v>
       </c>
-      <c r="H17" t="s">
-        <v>165</v>
-      </c>
       <c r="I17" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1415,7 +1412,7 @@
         <v>106</v>
       </c>
       <c r="H18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I18" t="s">
         <v>213</v>
@@ -1438,10 +1435,10 @@
         <v>107</v>
       </c>
       <c r="H19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I19" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1461,7 +1458,7 @@
         <v>108</v>
       </c>
       <c r="H20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I20" t="s">
         <v>213</v>
@@ -1483,8 +1480,11 @@
       <c r="G21" t="s">
         <v>109</v>
       </c>
+      <c r="H21" t="s">
+        <v>168</v>
+      </c>
       <c r="I21" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1503,11 +1503,8 @@
       <c r="G22" t="s">
         <v>110</v>
       </c>
-      <c r="H22" t="s">
-        <v>169</v>
-      </c>
       <c r="I22" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1526,8 +1523,11 @@
       <c r="G23" t="s">
         <v>111</v>
       </c>
+      <c r="H23" t="s">
+        <v>169</v>
+      </c>
       <c r="I23" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1550,7 +1550,7 @@
         <v>170</v>
       </c>
       <c r="I24" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1573,7 +1573,7 @@
         <v>171</v>
       </c>
       <c r="I25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1596,7 +1596,7 @@
         <v>172</v>
       </c>
       <c r="I26" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1619,7 +1619,7 @@
         <v>173</v>
       </c>
       <c r="I27" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1642,7 +1642,7 @@
         <v>174</v>
       </c>
       <c r="I28" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1661,16 +1661,19 @@
       <c r="G29" t="s">
         <v>117</v>
       </c>
+      <c r="H29" t="s">
+        <v>175</v>
+      </c>
       <c r="I29" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
         <v>44</v>
@@ -1682,7 +1685,7 @@
         <v>118</v>
       </c>
       <c r="H30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I30" t="s">
         <v>208</v>
@@ -1705,10 +1708,10 @@
         <v>119</v>
       </c>
       <c r="H31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1728,10 +1731,10 @@
         <v>120</v>
       </c>
       <c r="H32" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I32" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1751,10 +1754,10 @@
         <v>121</v>
       </c>
       <c r="H33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I33" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1774,18 +1777,18 @@
         <v>122</v>
       </c>
       <c r="H34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
         <v>49</v>
@@ -1797,10 +1800,10 @@
         <v>123</v>
       </c>
       <c r="H35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1820,10 +1823,10 @@
         <v>124</v>
       </c>
       <c r="H36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I36" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1842,11 +1845,8 @@
       <c r="G37" t="s">
         <v>125</v>
       </c>
-      <c r="H37" t="s">
-        <v>182</v>
-      </c>
       <c r="I37" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1869,7 +1869,7 @@
         <v>183</v>
       </c>
       <c r="I38" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1888,11 +1888,8 @@
       <c r="G39" t="s">
         <v>127</v>
       </c>
-      <c r="H39" t="s">
-        <v>184</v>
-      </c>
       <c r="I39" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1912,10 +1909,10 @@
         <v>128</v>
       </c>
       <c r="H40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1935,10 +1932,10 @@
         <v>129</v>
       </c>
       <c r="H41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I41" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1957,8 +1954,11 @@
       <c r="G42" t="s">
         <v>130</v>
       </c>
+      <c r="H42" t="s">
+        <v>186</v>
+      </c>
       <c r="I42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1981,7 +1981,7 @@
         <v>187</v>
       </c>
       <c r="I43" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2004,7 +2004,7 @@
         <v>188</v>
       </c>
       <c r="I44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2023,8 +2023,11 @@
       <c r="G45" t="s">
         <v>133</v>
       </c>
+      <c r="H45" t="s">
+        <v>189</v>
+      </c>
       <c r="I45" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2043,11 +2046,8 @@
       <c r="G46" t="s">
         <v>134</v>
       </c>
-      <c r="H46" t="s">
-        <v>189</v>
-      </c>
       <c r="I46" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2070,7 +2070,7 @@
         <v>190</v>
       </c>
       <c r="I47" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2093,7 +2093,7 @@
         <v>191</v>
       </c>
       <c r="I48" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2116,7 +2116,7 @@
         <v>192</v>
       </c>
       <c r="I49" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2136,15 +2136,15 @@
         <v>138</v>
       </c>
       <c r="I50" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
         <v>65</v>
@@ -2155,8 +2155,11 @@
       <c r="G51" t="s">
         <v>139</v>
       </c>
+      <c r="H51" t="s">
+        <v>193</v>
+      </c>
       <c r="I51" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2176,7 +2179,7 @@
         <v>140</v>
       </c>
       <c r="H52" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I52" t="s">
         <v>209</v>
@@ -2199,18 +2202,18 @@
         <v>141</v>
       </c>
       <c r="H53" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I53" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
         <v>68</v>
@@ -2221,11 +2224,8 @@
       <c r="G54" t="s">
         <v>142</v>
       </c>
-      <c r="H54" t="s">
-        <v>195</v>
-      </c>
       <c r="I54" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2248,15 +2248,15 @@
         <v>196</v>
       </c>
       <c r="I55" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
         <v>70</v>
@@ -2271,7 +2271,7 @@
         <v>197</v>
       </c>
       <c r="I56" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2294,7 +2294,7 @@
         <v>198</v>
       </c>
       <c r="I57" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2317,15 +2317,15 @@
         <v>199</v>
       </c>
       <c r="I58" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
         <v>73</v>
@@ -2340,7 +2340,7 @@
         <v>200</v>
       </c>
       <c r="I59" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2363,7 +2363,7 @@
         <v>201</v>
       </c>
       <c r="I60" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2386,7 +2386,7 @@
         <v>202</v>
       </c>
       <c r="I61" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2409,7 +2409,7 @@
         <v>203</v>
       </c>
       <c r="I62" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2432,7 +2432,7 @@
         <v>204</v>
       </c>
       <c r="I63" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2455,7 +2455,7 @@
         <v>205</v>
       </c>
       <c r="I64" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:9">

--- a/publipostage2/01jbb3w63/liste_essais_cliniques_identifies_01jbb3w63.xlsx
+++ b/publipostage2/01jbb3w63/liste_essais_cliniques_identifies_01jbb3w63.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="241">
   <si>
     <t>statut</t>
   </si>
@@ -55,16 +55,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT02837835</t>
@@ -73,22 +73,34 @@
     <t>NCT00533104</t>
   </si>
   <si>
+    <t>NCT00904501</t>
+  </si>
+  <si>
+    <t>NCT01566071</t>
+  </si>
+  <si>
+    <t>NCT03668925</t>
+  </si>
+  <si>
+    <t>NCT01565434</t>
+  </si>
+  <si>
     <t>NCT02833870</t>
   </si>
   <si>
-    <t>NCT01566071</t>
-  </si>
-  <si>
     <t>NCT02862639</t>
   </si>
   <si>
-    <t>NCT00904501</t>
-  </si>
-  <si>
-    <t>NCT01565434</t>
-  </si>
-  <si>
-    <t>NCT03668925</t>
+    <t>NCT02833909</t>
+  </si>
+  <si>
+    <t>NCT02793453</t>
+  </si>
+  <si>
+    <t>NCT02404142</t>
+  </si>
+  <si>
+    <t>NCT02816151</t>
   </si>
   <si>
     <t>NCT02784769</t>
@@ -97,52 +109,52 @@
     <t>NCT02810496</t>
   </si>
   <si>
-    <t>NCT02404142</t>
-  </si>
-  <si>
-    <t>NCT02793453</t>
-  </si>
-  <si>
-    <t>NCT02816151</t>
-  </si>
-  <si>
-    <t>NCT02833909</t>
-  </si>
-  <si>
     <t>NCT02792283</t>
   </si>
   <si>
+    <t>NCT02818465</t>
+  </si>
+  <si>
     <t>NCT02808663</t>
   </si>
   <si>
+    <t>NCT02868944</t>
+  </si>
+  <si>
     <t>NCT02862652</t>
   </si>
   <si>
-    <t>NCT02818465</t>
-  </si>
-  <si>
-    <t>NCT02868944</t>
+    <t>NCT03007108</t>
+  </si>
+  <si>
+    <t>NCT02857387</t>
+  </si>
+  <si>
+    <t>NCT03371277</t>
+  </si>
+  <si>
+    <t>NCT02837926</t>
   </si>
   <si>
     <t>NCT02814812</t>
   </si>
   <si>
+    <t>NCT02794129</t>
+  </si>
+  <si>
     <t>NCT02770482</t>
   </si>
   <si>
-    <t>NCT02837926</t>
-  </si>
-  <si>
-    <t>NCT02794129</t>
-  </si>
-  <si>
-    <t>NCT02857387</t>
-  </si>
-  <si>
-    <t>NCT03371277</t>
-  </si>
-  <si>
-    <t>NCT03007108</t>
+    <t>NCT02794311</t>
+  </si>
+  <si>
+    <t>NCT03344471</t>
+  </si>
+  <si>
+    <t>NCT02862678</t>
+  </si>
+  <si>
+    <t>NCT02816580</t>
   </si>
   <si>
     <t>NCT03664908</t>
@@ -151,105 +163,111 @@
     <t>NCT02867579</t>
   </si>
   <si>
+    <t>NCT02862743</t>
+  </si>
+  <si>
+    <t>NCT02787980</t>
+  </si>
+  <si>
     <t>NCT02864121</t>
   </si>
   <si>
-    <t>NCT02862678</t>
-  </si>
-  <si>
-    <t>NCT03344471</t>
-  </si>
-  <si>
-    <t>NCT02816580</t>
-  </si>
-  <si>
-    <t>NCT02862743</t>
-  </si>
-  <si>
-    <t>NCT02794311</t>
-  </si>
-  <si>
-    <t>NCT02787980</t>
-  </si>
-  <si>
     <t>NCT04301427</t>
   </si>
   <si>
+    <t>NCT03882463</t>
+  </si>
+  <si>
+    <t>NCT03374618</t>
+  </si>
+  <si>
+    <t>NCT04255121</t>
+  </si>
+  <si>
+    <t>NCT02862756</t>
+  </si>
+  <si>
+    <t>NCT04816084</t>
+  </si>
+  <si>
+    <t>NCT03666260</t>
+  </si>
+  <si>
+    <t>NCT02865226</t>
+  </si>
+  <si>
+    <t>NCT02866812</t>
+  </si>
+  <si>
     <t>NCT04875494</t>
   </si>
   <si>
-    <t>NCT03666260</t>
-  </si>
-  <si>
     <t>NCT02879422</t>
   </si>
   <si>
-    <t>NCT03374618</t>
-  </si>
-  <si>
-    <t>NCT04255121</t>
-  </si>
-  <si>
     <t>NCT03852888</t>
   </si>
   <si>
-    <t>NCT04816084</t>
-  </si>
-  <si>
-    <t>NCT03882463</t>
-  </si>
-  <si>
-    <t>NCT02866812</t>
-  </si>
-  <si>
-    <t>NCT02862756</t>
-  </si>
-  <si>
     <t>NCT05384418</t>
   </si>
   <si>
     <t>NCT04376840</t>
   </si>
   <si>
+    <t>NCT03008746</t>
+  </si>
+  <si>
+    <t>NCT02826928</t>
+  </si>
+  <si>
+    <t>NCT04999254</t>
+  </si>
+  <si>
     <t>NCT05391451</t>
   </si>
   <si>
-    <t>NCT04999254</t>
-  </si>
-  <si>
-    <t>NCT03008746</t>
-  </si>
-  <si>
-    <t>NCT02826928</t>
+    <t>NCT02807129</t>
   </si>
   <si>
     <t>NCT05392062</t>
   </si>
   <si>
+    <t>NCT04429490</t>
+  </si>
+  <si>
+    <t>NCT04576494</t>
+  </si>
+  <si>
+    <t>NCT05002257</t>
+  </si>
+  <si>
     <t>NCT03007095</t>
   </si>
   <si>
-    <t>NCT04429490</t>
-  </si>
-  <si>
-    <t>NCT04576494</t>
-  </si>
-  <si>
     <t>NCT04117932</t>
   </si>
   <si>
+    <t>NCT04326569</t>
+  </si>
+  <si>
+    <t>NCT05000034</t>
+  </si>
+  <si>
+    <t>NCT04647422</t>
+  </si>
+  <si>
+    <t>NCT05000073</t>
+  </si>
+  <si>
+    <t>NCT04237077</t>
+  </si>
+  <si>
+    <t>NCT05105256</t>
+  </si>
+  <si>
     <t>NCT04933097</t>
   </si>
   <si>
-    <t>NCT04237077</t>
-  </si>
-  <si>
-    <t>NCT05105256</t>
-  </si>
-  <si>
-    <t>NCT04326569</t>
-  </si>
-  <si>
     <t>NCT05505968</t>
   </si>
   <si>
@@ -259,6 +277,15 @@
     <t>2010-021265-80</t>
   </si>
   <si>
+    <t>2009-017401-11</t>
+  </si>
+  <si>
+    <t>2019-001529-28</t>
+  </si>
+  <si>
+    <t>2020-005180-30</t>
+  </si>
+  <si>
     <t>2008</t>
   </si>
   <si>
@@ -301,70 +328,85 @@
     <t>Critical Limb Ischemia Treatment by Local Intra-Muscular Injection of Autologous Mononuclear Cells</t>
   </si>
   <si>
+    <t>Cell Therapy in Critical Limb Ischemia</t>
+  </si>
+  <si>
+    <t>Association Between Hidradenitis Suppurativa and Spondyloarthritis</t>
+  </si>
+  <si>
     <t>Non-drug Taken Charge of Alzheimer's Disease: Profit Musical Activities</t>
   </si>
   <si>
     <t>Efficacy of Viscosupplementation Associated With Intra-articular Corticosteroid Injection Versus Intra-articular Injection of Corticosteroids Alone in Osteoarthritis of Hip</t>
   </si>
   <si>
-    <t>Cell Therapy in Critical Limb Ischemia</t>
-  </si>
-  <si>
-    <t>Association Between Hidradenitis Suppurativa and Spondyloarthritis</t>
+    <t>ex Vivo Study of the Inflammatory Response Associated With Hidradenitis Suppurativa</t>
+  </si>
+  <si>
+    <t>Antimicrobial Peptides in Periodontitis : a Pilot Study</t>
+  </si>
+  <si>
+    <t>Children Toxine Botulinum Detrusor Injection in Neurogenic Vesical Hyperactivity Syndrom: Non Inferiority Multicenter Controlled Therapeutic Study Between Two Reported Weight's Doses</t>
   </si>
   <si>
     <t>Role of Molecular Aging of Matrix Proteins of the Vessel Wall in the Aneurysm Pathology</t>
   </si>
   <si>
+    <t>Injections intradétrusoriennes de toxine botulique A chez l'enfant présentant un syndrome d'hyperactivité vésicale neurogène : essai thérapeutique contrôlé multicentrique de non infériorité entre deux doses rapportées au poids.</t>
+  </si>
+  <si>
     <t>Prevalence of Mutations of Glucocorticoid Receptors in Bilateral Adrenal Hyperplasia</t>
   </si>
   <si>
-    <t>Injections intradétrusoriennes de toxine botulique A chez l'enfant présentant un syndrome d'hyperactivité vésicale neurogène : essai thérapeutique contrôlé multicentrique de non infériorité entre deux doses rapportées au poids.</t>
-  </si>
-  <si>
-    <t>Antimicrobial Peptides in Periodontitis : a Pilot Study</t>
-  </si>
-  <si>
-    <t>Children Toxine Botulinum Detrusor Injection in Neurogenic Vesical Hyperactivity Syndrom: Non Inferiority Multicenter Controlled Therapeutic Study Between Two Reported Weight's Doses</t>
-  </si>
-  <si>
-    <t>ex Vivo Study of the Inflammatory Response Associated With Hidradenitis Suppurativa</t>
-  </si>
-  <si>
     <t>Evaluation of the Bleeding Risk in Patient Undergoing Hemodialysis by the Analysis of Platelet Function by PFA-100®</t>
   </si>
   <si>
+    <t>Role of the Interaction Between AGEs and Their Receptor RAGE in the Development and the Progression of the Uremic Vasculopathy of Hemodialyzed Patients</t>
+  </si>
+  <si>
     <t>Assessment of the Predictive Value of Fecal Calprotectin for the Outcome of Severe Alcoholic Hepatitis</t>
   </si>
   <si>
+    <t>Interest of the Injection of Morphine, in Addition to a Local Anesthetic When Performing a Combined Spinal-epidural for Labor Analgesia</t>
+  </si>
+  <si>
     <t>Role of the Microparticles and of Tissue Factor in the Pro-thrombotic Phenotype and the Thromboembolic Complications During the Acute Lymphoblastic Leukemia in Children</t>
   </si>
   <si>
-    <t>Role of the Interaction Between AGEs and Their Receptor RAGE in the Development and the Progression of the Uremic Vasculopathy of Hemodialyzed Patients</t>
-  </si>
-  <si>
-    <t>Interest of the Injection of Morphine, in Addition to a Local Anesthetic When Performing a Combined Spinal-epidural for Labor Analgesia</t>
+    <t>Determination of Normal Range Values of Thrombin Generation Parameters in Pediatrics Population Using a New Standardized Thrombin Generation Assay</t>
+  </si>
+  <si>
+    <t>Markers of Vascular Aging and Coronary Syndrome</t>
+  </si>
+  <si>
+    <t>Comparaison de la radiothérapie multichamps et du rituximab IV dans le traitement  des lymphomes B cutanés indolents à lésions multiples ou récidivantes.</t>
+  </si>
+  <si>
+    <t>Attributional Style Assessment in Patients With Parkinson's Disease Treated With Deep Brain Stimulation</t>
+  </si>
+  <si>
+    <t>Work Package 4: HPV Vaccination of Women in Screening Ages</t>
   </si>
   <si>
     <t>Postoperative Comput Tomography as a Predictor of Postoperative Complications After Pancreatic Surgery</t>
   </si>
   <si>
+    <t>Functional Magnetic Resonance Imaging of Formal Thought Disorders in Bipolar Disorder</t>
+  </si>
+  <si>
     <t>Utility of Amyloid Beta-peptide 1-40 Measurement in the Diagnosis of Alzheimer's Disease</t>
   </si>
   <si>
-    <t>Work Package 4: HPV Vaccination of Women in Screening Ages</t>
-  </si>
-  <si>
-    <t>Functional Magnetic Resonance Imaging of Formal Thought Disorders in Bipolar Disorder</t>
-  </si>
-  <si>
-    <t>Markers of Vascular Aging and Coronary Syndrome</t>
-  </si>
-  <si>
-    <t>Attributional Style Assessment in Patients With Parkinson's Disease Treated With Deep Brain Stimulation</t>
-  </si>
-  <si>
-    <t>Determination of Normal Range Values of Thrombin Generation Parameters in Pediatrics Population Using a New Standardized Thrombin Generation Assay</t>
+    <t>AlcoholPredict: Neuropsychology, Brain Imaging and Genetic Polymorphisms in Binge Drinking</t>
+  </si>
+  <si>
+    <t>Factors Associated With Post-Traumatic Stress Disorder in Patients With After Preterm Delivery</t>
+  </si>
+  <si>
+    <t>Predictive Value of Diffusion-weighted MRI Performed in Early Post-treatment in the Occurrence of Tumor Recurrence or Progression in Head and Neck Squamous Cell Carcinoma Treated With Chemoradiotherapy: a Pilot Study</t>
+  </si>
+  <si>
+    <t>PTMDP (Post-translational Modification Derived Products) as Markers of Frailty in Elderly Subjects</t>
   </si>
   <si>
     <t>Detection of Anti-glomerular Basement Membrane Antibodies (Anti-GBM): a Promising Biomarker for Lupus Nephritis (LN) Screening in Systemic Lupus Erythematosus (SLE) Patients?</t>
@@ -373,105 +415,119 @@
     <t>Pregnancy Denial and Attachment</t>
   </si>
   <si>
+    <t>Molecular Characterization of Advanced Stage Melanoma by Blood Sampling</t>
+  </si>
+  <si>
+    <t>Dosage of Serum Tryptase Levels in a Population of Premature Newborns to Evaluate Mast Cell Activity</t>
+  </si>
+  <si>
     <t>Association Between High-risk HPV Genome Integration Detected by Molecular Combing and Cervical Lesions Severity and/or Evolution</t>
   </si>
   <si>
-    <t>Predictive Value of Diffusion-weighted MRI Performed in Early Post-treatment in the Occurrence of Tumor Recurrence or Progression in Head and Neck Squamous Cell Carcinoma Treated With Chemoradiotherapy: a Pilot Study</t>
-  </si>
-  <si>
-    <t>Factors Associated With Post-Traumatic Stress Disorder in Patients With After Preterm Delivery</t>
-  </si>
-  <si>
-    <t>PTMDP (Post-translational Modification Derived Products) as Markers of Frailty in Elderly Subjects</t>
-  </si>
-  <si>
-    <t>Molecular Characterization of Advanced Stage Melanoma by Blood Sampling</t>
-  </si>
-  <si>
-    <t>AlcoholPredict: Neuropsychology, Brain Imaging and Genetic Polymorphisms in Binge Drinking</t>
-  </si>
-  <si>
-    <t>Dosage of Serum Tryptase Levels in a Population of Premature Newborns to Evaluate Mast Cell Activity</t>
-  </si>
-  <si>
     <t>Smallest Significant Value in Osteodensitomery in an Obese Population</t>
   </si>
   <si>
+    <t>Interest of SmartGuard Technology (Predictive System for Stopping Insulin Before Hypoglycemia) in Children With Type 1 Diabetes Treated With Insulin Pump</t>
+  </si>
+  <si>
+    <t>Neutrophil Extracellular Traps in Different Forms of Systemic Sclerosis</t>
+  </si>
+  <si>
+    <t>Interest of the Alkalinization of the Adrenaline Lidocaine Solution for Conversion of Epidural Analgesia Into Epidural Anesthesia During an Emergency Caesarean</t>
+  </si>
+  <si>
+    <t>Analysis of Thrombo-embolic Complications After Endovascular Treatment of Unruptured Intracranial Aneurysms</t>
+  </si>
+  <si>
+    <t>SERUR : Etude sérologique COVID-19 (Anti-SARS CoV 2) du Personnel de l'Université de Reims Champagne-Ardenne</t>
+  </si>
+  <si>
+    <t>Comparison of the Clinical Effectiveness of the Quadratus Lumborum Block and Femoral Block in the Analgesia of Total Posterior Hip Arthroplasty</t>
+  </si>
+  <si>
+    <t>Comparison of the Clinical Efficacy of 2 Paravertebral Block Strategies in Thoracic Surgery by Thoracotomy: : by the Anesthetist (Paravertebral Block Guided by Ultrasound) and by the Thoracic Surgeon (Paravertebral Block Visual)</t>
+  </si>
+  <si>
+    <t>Prevalence and Factors Associated With the Occurrence of Depression Six Months After an Endovascular Treatment of Intracranial Aneurysm</t>
+  </si>
+  <si>
     <t>Physical Exercise and Self-esteem: a Randomized Controlled Trial in Domestic Violence Victims</t>
   </si>
   <si>
-    <t>Comparison of the Clinical Effectiveness of the Quadratus Lumborum Block and Femoral Block in the Analgesia of Total Posterior Hip Arthroplasty</t>
-  </si>
-  <si>
     <t>Study of the Association Between Genetic Markers (Endothelial Lipase and Aldose Reductase) and Proliferative Diabetic Retinopathy</t>
   </si>
   <si>
-    <t>Neutrophil Extracellular Traps in Different Forms of Systemic Sclerosis</t>
-  </si>
-  <si>
-    <t>Interest of the Alkalinization of the Adrenaline Lidocaine Solution for Conversion of Epidural Analgesia Into Epidural Anesthesia During an Emergency Caesarean</t>
-  </si>
-  <si>
     <t>Kinetics of Elimination of Methotrexate and Its Major Metabolite 7-OH-methotrexate for Observant Patients</t>
   </si>
   <si>
-    <t>SERUR : Etude sérologique COVID-19 (Anti-SARS CoV 2) du Personnel de l'Université de Reims Champagne-Ardenne</t>
-  </si>
-  <si>
-    <t>Interest of SmartGuard Technology (Predictive System for Stopping Insulin Before Hypoglycemia) in Children With Type 1 Diabetes Treated With Insulin Pump</t>
-  </si>
-  <si>
-    <t>Prevalence and Factors Associated With the Occurrence of Depression Six Months After an Endovascular Treatment of Intracranial Aneurysm</t>
-  </si>
-  <si>
-    <t>Analysis of Thrombo-embolic Complications After Endovascular Treatment of Unruptured Intracranial Aneurysms</t>
-  </si>
-  <si>
     <t>Cardiac AMyloidosis Prevalence and Outcome in Aortic Stenosis Patients Undergoing Transcatheter Aortic Valve Implantation (CAMPOS-TAVI)</t>
   </si>
   <si>
     <t>Prevalence of Long-term Respiratory Complications of Severe SARS-CoV-2 Pneumonia</t>
   </si>
   <si>
+    <t>Pulmonary Microbiota in COPD Patients Colonized With P. Aeruginosa OprD Mutant Resistant to Imipenem</t>
+  </si>
+  <si>
+    <t>Diagnostic Performances of Urine and Plasma 5-hydroxyindolacetic Acid (5HIAA) Values in Patients With Small-intestine Neuroendocrine Tumors</t>
+  </si>
+  <si>
+    <t>Efficacité et tolérance de l’ustekinumab dans la pemphigoïde bulleuse 
+ Efficacité et tolérance de l’ustekinumab dans la pemphigoïde bulleuse</t>
+  </si>
+  <si>
+    <t>Osteopathic Consultation in the Emergency Department for Fresh Lateral Ligament Sprain : a Randomized Controlled Trial</t>
+  </si>
+  <si>
     <t>Clinical Efficacy of the Quadratus Lumborum Block for Analgesia in Kidney Transplant Surgery</t>
   </si>
   <si>
-    <t>Osteopathic Consultation in the Emergency Department for Fresh Lateral Ligament Sprain : a Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Pulmonary Microbiota in COPD Patients Colonized With P. Aeruginosa OprD Mutant Resistant to Imipenem</t>
-  </si>
-  <si>
-    <t>Diagnostic Performances of Urine and Plasma 5-hydroxyindolacetic Acid (5HIAA) Values in Patients With Small-intestine Neuroendocrine Tumors</t>
+    <t>Fragmentation of Elastin as a Biological Marker of Frailty and Impact in Tumor Progression in Elderly Patients With Cancer</t>
   </si>
   <si>
     <t>Pathophysiology of Gas Exchange and Time Course Changes in Spontaneously Breathing Patients With Acute Respiratory Failure Due to COVID-19. A Multicenter Prospective Study.</t>
   </si>
   <si>
+    <t>Organochlorine Concentration in Adipose Tissue and Pancreatic Adenocarcinoma : a Case Control Study.</t>
+  </si>
+  <si>
+    <t>Study of the Functional Effects of Nusinersen in 5q-spinal Muscular Amyotrophy Adults (SMA Type 2 or 3 Forms): a Multicenter Single-case Experimental Design in Multiple Baselines Across Subjects, Randomized, Single-blinded Evaluation</t>
+  </si>
+  <si>
+    <t>Etude des effets fonctionnels du nusinersen chez des personnes amyotrophiques spinaux adultes par déficit génétique 5q de type 2 ou 3 : étude expérimentale en cas unique en lignes de base multiples à travers les sujets, multicentrique, randomisée, en simple aveugle  
+ Etude des effets fonctionnels du nusinersen chez des personnes amyotrophiques spinaux adultes par déficit génétique 5q de type 2 ou 3 : étude expérimentale en cas unique en lignes de base multiples à travers les sujets, multicentrique, randomisée, en simple aveugle</t>
+  </si>
+  <si>
+    <t>Impact of Listening to Music on Anxiety Postoperative in a Postanesthesic Care Unit (PACU) After Spinal Anesthesia</t>
+  </si>
+  <si>
     <t>Preterm Birth and Social Cognition: of the Executive Functions and Parental Anxiety's Stakes</t>
   </si>
   <si>
-    <t>Organochlorine Concentration in Adipose Tissue and Pancreatic Adenocarcinoma : a Case Control Study.</t>
-  </si>
-  <si>
-    <t>Study of the Functional Effects of Nusinersen in 5q-spinal Muscular Amyotrophy Adults (SMA Type 2 or 3 Forms): a Multicenter Single-case Experimental Design in Multiple Baselines Across Subjects, Randomized, Single-blinded Evaluation</t>
-  </si>
-  <si>
     <t>Efficacy and Safety of Ustekinumab in Bullous Pemphigoid</t>
   </si>
   <si>
+    <t>Interest of the Copeptine Dosage in Diagnosis of Post-operative Insipidus Diabetes After Transsphenoidal Pituitary Surgery</t>
+  </si>
+  <si>
+    <t>Nurses-driven, Capnography-guided Protocol Weaning From the Mechanical Ventilation at Bedside: A Feasibility Study</t>
+  </si>
+  <si>
+    <t>Investigation of Social Cognition and Executive Functions as Cognitive Vulnerability Markers for the Development and Maintenance of Alcohol Use Disorders - a Transverse Study Design</t>
+  </si>
+  <si>
+    <t>Influence of Socio-aesthetic Care on the Quality of Life of Hemodialysis Patients</t>
+  </si>
+  <si>
+    <t>Impact of a Telephone Coaching Program on Evolution of Autonomy in Subjects Aged 75 Years or More Living at Home</t>
+  </si>
+  <si>
+    <t>Platelet-rich Plasma Infiltration Versus Corticosteroid Infiltration (Prednisolone) in Treatment of Lumbar Facet Joint Syndrome</t>
+  </si>
+  <si>
     <t>Evaluation of a New Screening Method for Sarcopenia in Rheumatoid Arthritis</t>
   </si>
   <si>
-    <t>Impact of a Telephone Coaching Program on Evolution of Autonomy in Subjects Aged 75 Years or More Living at Home</t>
-  </si>
-  <si>
-    <t>Platelet-rich Plasma Infiltration Versus Corticosteroid Infiltration (Prednisolone) in Treatment of Lumbar Facet Joint Syndrome</t>
-  </si>
-  <si>
-    <t>Interest of the Copeptine Dosage in Diagnosis of Post-operative Insipidus Diabetes After Transsphenoidal Pituitary Surgery</t>
-  </si>
-  <si>
     <t>Evaluation of the Interest of a Virtual Reality Headset on Pain and Anxiety During Epidural Injection Through the Sacrococcygeal Hiatus in Patients With Lumbar Radicular Pain.</t>
   </si>
   <si>
@@ -481,19 +537,28 @@
     <t>CEFTALC</t>
   </si>
   <si>
+    <t>BALI</t>
+  </si>
+  <si>
+    <t>DRIVE COG</t>
+  </si>
+  <si>
+    <t>VESPA</t>
+  </si>
+  <si>
     <t>MusicAlzheimer</t>
   </si>
   <si>
-    <t>DRIVE COG</t>
-  </si>
-  <si>
     <t>VISCOSUPP-HIP</t>
   </si>
   <si>
-    <t>BALI</t>
-  </si>
-  <si>
-    <t>VESPA</t>
+    <t>PAROPAM</t>
+  </si>
+  <si>
+    <t>GICAC</t>
+  </si>
+  <si>
+    <t>TBIDE</t>
   </si>
   <si>
     <t>VIMANE</t>
@@ -502,43 +567,49 @@
     <t>MUTA-GR</t>
   </si>
   <si>
-    <t>GICAC</t>
-  </si>
-  <si>
-    <t>TBIDE</t>
-  </si>
-  <si>
-    <t>PAROPAM</t>
+    <t>RAGE-VASCU</t>
   </si>
   <si>
     <t>CALPRO-HAA</t>
   </si>
   <si>
+    <t>MASEA</t>
+  </si>
+  <si>
     <t>THROMBLEUKEMIA</t>
   </si>
   <si>
-    <t>RAGE-VASCU</t>
-  </si>
-  <si>
-    <t>MASEA</t>
+    <t>TGT</t>
+  </si>
+  <si>
+    <t>MAVASCOR</t>
+  </si>
+  <si>
+    <t>Rituximab versus radiothérapie dans les lymphomes B cutanés indolents</t>
+  </si>
+  <si>
+    <t>ParkAIHQ</t>
+  </si>
+  <si>
+    <t>CoheaHr-WP4</t>
+  </si>
+  <si>
+    <t>i-TCP</t>
   </si>
   <si>
     <t>ADAB40</t>
   </si>
   <si>
-    <t>CoheaHr-WP4</t>
-  </si>
-  <si>
-    <t>i-TCP</t>
-  </si>
-  <si>
-    <t>MAVASCOR</t>
-  </si>
-  <si>
-    <t>ParkAIHQ</t>
-  </si>
-  <si>
-    <t>TGT</t>
+    <t>AlcoolPredict</t>
+  </si>
+  <si>
+    <t>PTSD-preterm</t>
+  </si>
+  <si>
+    <t>ORODIFF</t>
+  </si>
+  <si>
+    <t>MAFRA</t>
   </si>
   <si>
     <t>GOODLUPUS</t>
@@ -547,90 +618,96 @@
     <t>Denial-attach</t>
   </si>
   <si>
+    <t>MELCIRC</t>
+  </si>
+  <si>
     <t>IDAHO</t>
   </si>
   <si>
-    <t>ORODIFF</t>
-  </si>
-  <si>
-    <t>PTSD-preterm</t>
-  </si>
-  <si>
-    <t>MAFRA</t>
-  </si>
-  <si>
-    <t>MELCIRC</t>
-  </si>
-  <si>
-    <t>AlcoolPredict</t>
-  </si>
-  <si>
     <t>PPVS-ob</t>
   </si>
   <si>
+    <t>NET-SSC</t>
+  </si>
+  <si>
+    <t>BiEpIC</t>
+  </si>
+  <si>
+    <t>ACET</t>
+  </si>
+  <si>
+    <t>SERUR</t>
+  </si>
+  <si>
     <t>ATHAQLuB</t>
   </si>
   <si>
+    <t>PVBS-USguided</t>
+  </si>
+  <si>
+    <t>DEP-AIC</t>
+  </si>
+  <si>
     <t>REDIAGEN</t>
   </si>
   <si>
-    <t>NET-SSC</t>
-  </si>
-  <si>
-    <t>BiEpIC</t>
-  </si>
-  <si>
     <t>MetU</t>
   </si>
   <si>
-    <t>SERUR</t>
-  </si>
-  <si>
-    <t>DEP-AIC</t>
-  </si>
-  <si>
-    <t>ACET</t>
-  </si>
-  <si>
     <t>CAMPOS-TAVI</t>
   </si>
   <si>
+    <t>MiPAD</t>
+  </si>
+  <si>
+    <t>OASED</t>
+  </si>
+  <si>
     <t>CARRENAL</t>
   </si>
   <si>
-    <t>OASED</t>
-  </si>
-  <si>
-    <t>MiPAD</t>
+    <t>AgElOn</t>
   </si>
   <si>
     <t>COVAQ</t>
   </si>
   <si>
+    <t>PESTIPAC</t>
+  </si>
+  <si>
+    <t>NUSI-AD-5qSM</t>
+  </si>
+  <si>
+    <t>MusicAnx-SSPI</t>
+  </si>
+  <si>
     <t>TERM-COG</t>
   </si>
   <si>
-    <t>PESTIPAC</t>
-  </si>
-  <si>
-    <t>NUSI-AD-5qSM</t>
-  </si>
-  <si>
     <t>PB-USTE</t>
   </si>
   <si>
+    <t>Copeptin-surg</t>
+  </si>
+  <si>
+    <t>NURSES-WEAN</t>
+  </si>
+  <si>
+    <t>COSEFEX-T</t>
+  </si>
+  <si>
+    <t>SocioAesthetic</t>
+  </si>
+  <si>
+    <t>Frailcoach</t>
+  </si>
+  <si>
+    <t>IAPRP</t>
+  </si>
+  <si>
     <t>SARCO-RA</t>
   </si>
   <si>
-    <t>Frailcoach</t>
-  </si>
-  <si>
-    <t>IAPRP</t>
-  </si>
-  <si>
-    <t>Copeptin-surg</t>
-  </si>
-  <si>
     <t>Epi-RéV</t>
   </si>
   <si>
@@ -640,16 +717,19 @@
     <t>PROCEDURE</t>
   </si>
   <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>RADIATION</t>
+  </si>
+  <si>
     <t>BEHAVIORAL</t>
   </si>
   <si>
-    <t>OTHER</t>
-  </si>
-  <si>
     <t>DEVICE</t>
   </si>
   <si>
-    <t>RADIATION</t>
+    <t>DRUG (presumed)</t>
   </si>
   <si>
     <t>GENETIC</t>
@@ -1016,7 +1096,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1062,16 +1142,16 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="H2" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I2" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1085,13 +1165,13 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="I3" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1105,16 +1185,16 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H4" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="I4" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1128,13 +1208,13 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="I5" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1148,16 +1228,16 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="H6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I6" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1171,16 +1251,10 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="I7" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1194,10 +1268,16 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" t="s">
+        <v>176</v>
       </c>
       <c r="I8" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1211,16 +1291,16 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="H9" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="I9" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1234,39 +1314,36 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="I10" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G11" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="H11" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="I11" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1280,13 +1357,13 @@
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H12" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="I12" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1296,17 +1373,20 @@
       <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" t="s">
-        <v>80</v>
+      <c r="C13" t="s">
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G13" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="H13" t="s">
-        <v>163</v>
+        <v>180</v>
+      </c>
+      <c r="I13" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1317,19 +1397,19 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G14" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="H14" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="I14" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1339,40 +1419,43 @@
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>29</v>
+      <c r="D15" t="s">
+        <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H15" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="I15" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G16" t="s">
-        <v>104</v>
+        <v>113</v>
+      </c>
+      <c r="H16" t="s">
+        <v>182</v>
       </c>
       <c r="I16" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1386,13 +1469,13 @@
         <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="I17" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1406,16 +1489,16 @@
         <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G18" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H18" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="I18" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1429,16 +1512,16 @@
         <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G19" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="I19" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1452,16 +1535,16 @@
         <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G20" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="H20" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="I20" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1475,16 +1558,16 @@
         <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G21" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="H21" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="I21" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1498,13 +1581,16 @@
         <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G22" t="s">
-        <v>110</v>
+        <v>119</v>
+      </c>
+      <c r="H22" t="s">
+        <v>187</v>
       </c>
       <c r="I22" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1518,16 +1604,16 @@
         <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G23" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="H23" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="I23" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1537,20 +1623,20 @@
       <c r="B24" t="s">
         <v>14</v>
       </c>
-      <c r="C24" t="s">
-        <v>38</v>
+      <c r="D24" t="s">
+        <v>87</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G24" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="H24" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="I24" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1561,19 +1647,19 @@
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G25" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="H25" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="I25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1584,19 +1670,19 @@
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G26" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="H26" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I26" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1607,19 +1693,16 @@
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G27" t="s">
-        <v>115</v>
-      </c>
-      <c r="H27" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="I27" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1630,19 +1713,19 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G28" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="H28" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="I28" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1653,42 +1736,42 @@
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G29" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="H29" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="I29" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G30" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="H30" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="I30" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1699,19 +1782,19 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G31" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="H31" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="I31" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1722,19 +1805,19 @@
         <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G32" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="H32" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="I32" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1745,19 +1828,19 @@
         <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G33" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="H33" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="I33" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1768,42 +1851,42 @@
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G34" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="H34" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="I34" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G35" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="H35" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="I35" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1814,19 +1897,19 @@
         <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G36" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="H36" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="I36" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1837,16 +1920,16 @@
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F37" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G37" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="I37" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1857,19 +1940,19 @@
         <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F38" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G38" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="H38" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="I38" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1880,16 +1963,19 @@
         <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F39" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G39" t="s">
-        <v>127</v>
+        <v>136</v>
+      </c>
+      <c r="H39" t="s">
+        <v>202</v>
       </c>
       <c r="I39" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1900,19 +1986,16 @@
         <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F40" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G40" t="s">
-        <v>128</v>
-      </c>
-      <c r="H40" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="I40" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1923,19 +2006,19 @@
         <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F41" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G41" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="H41" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="I41" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1946,19 +2029,19 @@
         <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F42" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G42" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="H42" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="I42" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1969,19 +2052,19 @@
         <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F43" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G43" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H43" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="I43" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1992,19 +2075,19 @@
         <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F44" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G44" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="H44" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="I44" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2015,19 +2098,19 @@
         <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F45" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G45" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="H45" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="I45" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2038,16 +2121,19 @@
         <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F46" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G46" t="s">
-        <v>134</v>
+        <v>143</v>
+      </c>
+      <c r="H46" t="s">
+        <v>208</v>
       </c>
       <c r="I46" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2058,19 +2144,19 @@
         <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F47" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G47" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="H47" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="I47" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2081,19 +2167,16 @@
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F48" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G48" t="s">
-        <v>136</v>
-      </c>
-      <c r="H48" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="I48" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2104,39 +2187,42 @@
         <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F49" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G49" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="H49" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="I49" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F50" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G50" t="s">
-        <v>138</v>
+        <v>147</v>
+      </c>
+      <c r="H50" t="s">
+        <v>211</v>
       </c>
       <c r="I50" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2147,42 +2233,39 @@
         <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F51" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G51" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="H51" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="I51" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F52" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G52" t="s">
-        <v>140</v>
-      </c>
-      <c r="H52" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="I52" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2193,19 +2276,19 @@
         <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F53" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G53" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="H53" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="I53" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2216,16 +2299,16 @@
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F54" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G54" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="I54" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2235,43 +2318,40 @@
       <c r="B55" t="s">
         <v>14</v>
       </c>
-      <c r="C55" t="s">
-        <v>69</v>
+      <c r="D55" t="s">
+        <v>88</v>
       </c>
       <c r="F55" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G55" t="s">
-        <v>143</v>
-      </c>
-      <c r="H55" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="I55" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F56" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G56" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="H56" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="I56" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2282,19 +2362,19 @@
         <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F57" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G57" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="H57" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="I57" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2305,19 +2385,19 @@
         <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G58" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="H58" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="I58" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2328,19 +2408,19 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G59" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="H59" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="I59" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2351,19 +2431,19 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G60" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="H60" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="I60" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2374,19 +2454,19 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F61" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G61" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="H61" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="I61" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2396,20 +2476,17 @@
       <c r="B62" t="s">
         <v>14</v>
       </c>
-      <c r="C62" t="s">
-        <v>76</v>
+      <c r="D62" t="s">
+        <v>89</v>
       </c>
       <c r="F62" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G62" t="s">
-        <v>150</v>
-      </c>
-      <c r="H62" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="I62" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2420,42 +2497,42 @@
         <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F63" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G63" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="H63" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="I63" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F64" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G64" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="H64" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="I64" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2466,13 +2543,220 @@
         <v>14</v>
       </c>
       <c r="C65" t="s">
+        <v>76</v>
+      </c>
+      <c r="F65" t="s">
+        <v>100</v>
+      </c>
+      <c r="G65" t="s">
+        <v>162</v>
+      </c>
+      <c r="H65" t="s">
+        <v>222</v>
+      </c>
+      <c r="I65" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" t="s">
+        <v>77</v>
+      </c>
+      <c r="F66" t="s">
+        <v>101</v>
+      </c>
+      <c r="G66" t="s">
+        <v>163</v>
+      </c>
+      <c r="H66" t="s">
+        <v>223</v>
+      </c>
+      <c r="I66" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" t="s">
+        <v>78</v>
+      </c>
+      <c r="F67" t="s">
+        <v>101</v>
+      </c>
+      <c r="G67" t="s">
+        <v>164</v>
+      </c>
+      <c r="H67" t="s">
+        <v>224</v>
+      </c>
+      <c r="I67" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" t="s">
         <v>79</v>
       </c>
-      <c r="G65" t="s">
-        <v>153</v>
-      </c>
-      <c r="I65" t="s">
-        <v>207</v>
+      <c r="F68" t="s">
+        <v>101</v>
+      </c>
+      <c r="G68" t="s">
+        <v>165</v>
+      </c>
+      <c r="H68" t="s">
+        <v>225</v>
+      </c>
+      <c r="I68" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" t="s">
+        <v>80</v>
+      </c>
+      <c r="F69" t="s">
+        <v>101</v>
+      </c>
+      <c r="G69" t="s">
+        <v>166</v>
+      </c>
+      <c r="H69" t="s">
+        <v>226</v>
+      </c>
+      <c r="I69" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" t="s">
+        <v>81</v>
+      </c>
+      <c r="F70" t="s">
+        <v>101</v>
+      </c>
+      <c r="G70" t="s">
+        <v>167</v>
+      </c>
+      <c r="H70" t="s">
+        <v>227</v>
+      </c>
+      <c r="I70" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" t="s">
+        <v>82</v>
+      </c>
+      <c r="F71" t="s">
+        <v>101</v>
+      </c>
+      <c r="G71" t="s">
+        <v>168</v>
+      </c>
+      <c r="H71" t="s">
+        <v>228</v>
+      </c>
+      <c r="I71" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" t="s">
+        <v>83</v>
+      </c>
+      <c r="F72" t="s">
+        <v>101</v>
+      </c>
+      <c r="G72" t="s">
+        <v>169</v>
+      </c>
+      <c r="H72" t="s">
+        <v>229</v>
+      </c>
+      <c r="I72" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s">
+        <v>84</v>
+      </c>
+      <c r="F73" t="s">
+        <v>101</v>
+      </c>
+      <c r="G73" t="s">
+        <v>170</v>
+      </c>
+      <c r="H73" t="s">
+        <v>230</v>
+      </c>
+      <c r="I73" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" t="s">
+        <v>85</v>
+      </c>
+      <c r="G74" t="s">
+        <v>171</v>
+      </c>
+      <c r="I74" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
